--- a/Workplan/SummerToDo.xlsx
+++ b/Workplan/SummerToDo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>Include Fio's part (https://michelilab.stanford.edu/micheli)</t>
   </si>
@@ -99,7 +99,31 @@
     <t>Modify R package to include new functions for new indicators, and allso for more flexibility</t>
   </si>
   <si>
-    <t>Vignette of R package</t>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>July 2nd</t>
+  </si>
+  <si>
+    <t>June 26</t>
+  </si>
+  <si>
+    <t>July 6</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>All summer long!</t>
+  </si>
+  <si>
+    <t>June 28</t>
+  </si>
+  <si>
+    <t>July 1st</t>
+  </si>
+  <si>
+    <t>Update Vignette of R package</t>
   </si>
 </sst>
 </file>
@@ -431,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -443,15 +467,18 @@
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -459,23 +486,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -483,39 +516,51 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -523,7 +568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -531,7 +576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -539,7 +584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -547,39 +592,51 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>5</v>
       </c>

--- a/Workplan/SummerToDo.xlsx
+++ b/Workplan/SummerToDo.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/JAE/Escuela/Bren/TURF_reserves/Git/Docs/Workplan/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20115" windowHeight="5715"/>
+    <workbookView xWindow="120" yWindow="100" windowWidth="20120" windowHeight="10600"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,12 +19,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$18</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Include Fio's part (https://michelilab.stanford.edu/micheli)</t>
   </si>
@@ -124,13 +134,22 @@
   </si>
   <si>
     <t>Update Vignette of R package</t>
+  </si>
+  <si>
+    <t>August 13rd</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>July 12nd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,11 +186,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -213,12 +237,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -245,14 +269,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -279,6 +304,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,20 +480,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="95.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="95.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -478,7 +504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -486,7 +512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -497,7 +523,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -508,7 +534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -516,7 +542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -527,7 +553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -538,7 +564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -549,7 +575,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -560,39 +586,51 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -603,7 +641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -614,7 +652,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -625,7 +663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -636,7 +674,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -650,24 +688,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
